--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/InterestRateSwaptionPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/InterestRateSwaptionPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327E66B8-065E-43B2-9897-BA4BE70D10CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A2F0E-52B9-44D6-9762-50A462C56EA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" tabRatio="620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,15 @@
     <definedName name="LegType">Config!$F$2:$F$3</definedName>
     <definedName name="RollConvention">Config!$I$2:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2353,14 +2361,14 @@
     <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 28/06/2019, 9:25 AM</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="82">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2410,12 +2418,12 @@
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="str">
         <f t="array" ref="A8:A129">_xll.HLV5r3.Financial.Cache.ListUpTo100PricingStructures( B6:C7)</f>
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>151</v>
@@ -2424,32 +2432,32 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="B15" t="str">
         <f t="array" ref="B15:C56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( B9)</f>
@@ -2460,7 +2468,7 @@
       </c>
       <c r="E15">
         <f t="array" aca="1" ref="E15:F46" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndRates(B9,C2,C3)</f>
-        <v>-2797</v>
+        <v>-3224</v>
       </c>
       <c r="F15">
         <f ca="1"/>
@@ -2479,11 +2487,11 @@
       </c>
       <c r="E16">
         <f ca="1"/>
-        <v>-2796</v>
+        <v>-3223</v>
       </c>
       <c r="F16">
         <f ca="1"/>
-        <v>-1.6093396185912212E-5</v>
+        <v>-1.3961262093964422E-5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2498,11 +2506,11 @@
       </c>
       <c r="E17">
         <f ca="1"/>
-        <v>-2615</v>
+        <v>-3042</v>
       </c>
       <c r="F17">
         <f ca="1"/>
-        <v>-3.3668267137390018E-3</v>
+        <v>-2.8944024092552034E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2517,11 +2525,11 @@
       </c>
       <c r="E18">
         <f ca="1"/>
-        <v>-2431</v>
+        <v>-2858</v>
       </c>
       <c r="F18">
         <f ca="1"/>
-        <v>-7.0334838828718382E-3</v>
+        <v>-5.9834313476914147E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2536,11 +2544,11 @@
       </c>
       <c r="E19">
         <f ca="1"/>
-        <v>-2065</v>
+        <v>-2492</v>
       </c>
       <c r="F19">
         <f ca="1"/>
-        <v>-1.6725644458732258E-2</v>
+        <v>-1.3864706689933559E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2555,11 +2563,11 @@
       </c>
       <c r="E20">
         <f ca="1"/>
-        <v>-1701</v>
+        <v>-2128</v>
       </c>
       <c r="F20">
         <f ca="1"/>
-        <v>-3.0707150759093693E-2</v>
+        <v>-2.4564481922053627E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2574,11 +2582,11 @@
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>-1337</v>
+        <v>-1764</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>-5.3583539415949843E-2</v>
+        <v>-4.0679135550890866E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2593,11 +2601,11 @@
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>-970</v>
+        <v>-1397</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>-9.3766775123929058E-2</v>
+        <v>-6.5342152425062139E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2612,11 +2620,11 @@
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>-239</v>
+        <v>-666</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>-0.5179790555625492</v>
+        <v>-0.19419598221093448</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2631,11 +2639,11 @@
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>857</v>
+        <v>430</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>0.23169942605513061</v>
+        <v>0.475061609599571</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2650,11 +2658,11 @@
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>2681</v>
+        <v>2254</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>0.11161347022555468</v>
+        <v>0.13310590571098668</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2669,11 +2677,11 @@
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>4508</v>
+        <v>4081</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>8.729960330365838E-2</v>
+        <v>9.6543263776966981E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2688,11 +2696,11 @@
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>6335</v>
+        <v>5908</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>7.6710340159388046E-2</v>
+        <v>8.2311240718066614E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2707,11 +2715,11 @@
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>8162</v>
+        <v>7735</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>7.0607706929623149E-2</v>
+        <v>7.4541608812584315E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3001,7 +3009,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="B44" t="e">
         <v>#N/A</v>
@@ -3020,7 +3028,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="B45" t="e">
         <v>#N/A</v>
@@ -3039,7 +3047,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="B46" t="e">
         <v>#N/A</v>
@@ -3058,7 +3066,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
       <c r="B47" t="e">
         <v>#N/A</v>
@@ -3069,7 +3077,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
       </c>
       <c r="B48" t="e">
         <v>#N/A</v>
@@ -3080,7 +3088,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="B49" t="e">
         <v>#N/A</v>
@@ -3091,7 +3099,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="B50" t="e">
         <v>#N/A</v>
@@ -3102,7 +3110,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="B51" t="e">
         <v>#N/A</v>
@@ -3113,7 +3121,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="B52" t="e">
         <v>#N/A</v>
@@ -3124,7 +3132,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="B53" t="e">
         <v>#N/A</v>
@@ -3135,7 +3143,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
       </c>
       <c r="B54" t="e">
         <v>#N/A</v>
@@ -3146,7 +3154,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
       </c>
       <c r="B55" t="e">
         <v>#N/A</v>
@@ -3157,7 +3165,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
       </c>
       <c r="B56" t="e">
         <v>#N/A</v>
@@ -3168,252 +3176,252 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -3578,7 +3586,7 @@
       </c>
       <c r="E3" s="92">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B4,B11,B1,"FOLLOWING","Calendar")</f>
-        <v>45043</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3587,7 +3595,7 @@
       </c>
       <c r="B4" s="99">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>114</v>
@@ -3602,7 +3610,7 @@
       </c>
       <c r="B5" s="99">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B4,C5,B1,"FOLLOWING","Calendar")</f>
-        <v>43220</v>
+        <v>43647</v>
       </c>
       <c r="C5" s="129" t="s">
         <v>141</v>
@@ -3648,7 +3656,7 @@
       </c>
       <c r="B8" s="99">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B5,B11,B1,"FOLLOWING","Calendar")</f>
-        <v>45047</v>
+        <v>45474</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>117</v>
@@ -3663,14 +3671,14 @@
       </c>
       <c r="B9" s="102">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B5,B10,B1,"FOLLOWING","Calendar")</f>
-        <v>46874</v>
+        <v>47301</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="27">
         <f ca="1">B8</f>
-        <v>45047</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3970,7 +3978,7 @@
       </c>
       <c r="B37" s="126">
         <f ca="1"/>
-        <v>2498433.0263095391</v>
+        <v>1466431.4651769535</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3980,7 +3988,7 @@
       </c>
       <c r="B38" s="128">
         <f ca="1"/>
-        <v>-0.42888150499525401</v>
+        <v>-0.441417846615486</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3990,7 +3998,7 @@
       </c>
       <c r="B39" s="128">
         <f ca="1"/>
-        <v>0.56781917514251601</v>
+        <v>0.569315793798988</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4000,7 +4008,7 @@
       </c>
       <c r="B40" s="128">
         <f ca="1"/>
-        <v>4.9495284749939701E-2</v>
+        <v>5.1645542323769798E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4010,7 +4018,7 @@
       </c>
       <c r="B41" s="126">
         <f ca="1"/>
-        <v>77985.063253801301</v>
+        <v>66130.250124937986</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4020,7 +4028,7 @@
       </c>
       <c r="B42" s="126">
         <f ca="1"/>
-        <v>-33446.351295440385</v>
+        <v>-29191.072606293601</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4030,677 +4038,677 @@
       </c>
       <c r="B43" s="126">
         <f ca="1"/>
-        <v>-1827.5565734732436</v>
+        <v>-1183.0335923836381</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.60</v>
+        <v>BucketedDeltaVector.AUD.53</v>
       </c>
       <c r="B44" s="126">
         <f ca="1"/>
-        <v>-5.5310827855467884E-2</v>
+        <v>-3.9214997303145219E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.59</v>
+        <v>BucketedDeltaVector.AUD.52</v>
       </c>
       <c r="B45" s="126">
         <f ca="1"/>
-        <v>-0.28099735330612563</v>
+        <v>-0.16583365316047172</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.58</v>
+        <v>BucketedDeltaVector.AUD.51</v>
       </c>
       <c r="B46" s="126">
         <f ca="1"/>
-        <v>-0.53094966301251445</v>
+        <v>-0.27928200773821643</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.57</v>
+        <v>BucketedDeltaVector.AUD.50</v>
       </c>
       <c r="B47" s="126">
         <f ca="1"/>
-        <v>-0.76455944380985075</v>
+        <v>-0.37966260040431887</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.56</v>
+        <v>BucketedDeltaVector.AUD.49</v>
       </c>
       <c r="B48" s="126">
         <f ca="1"/>
-        <v>-0.97886923008931825</v>
+        <v>-0.46557929265627385</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.55</v>
+        <v>BucketedDeltaVector.AUD.48</v>
       </c>
       <c r="B49" s="126">
         <f ca="1"/>
-        <v>-1.1744907626160555</v>
+        <v>-0.53510270087886125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.54</v>
+        <v>BucketedDeltaVector.AUD.47</v>
       </c>
       <c r="B50" s="126">
         <f ca="1"/>
-        <v>-1.3532074682519448</v>
+        <v>-0.58889462948993654</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.53</v>
+        <v>BucketedDeltaVector.AUD.46</v>
       </c>
       <c r="B51" s="126">
         <f ca="1"/>
-        <v>-1.5120247905259967</v>
+        <v>-0.62759183004778596</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.52</v>
+        <v>BucketedDeltaVector.AUD.45</v>
       </c>
       <c r="B52" s="126">
         <f ca="1"/>
-        <v>-1.6487569786499452</v>
+        <v>-0.64960035737643507</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.51</v>
+        <v>BucketedDeltaVector.AUD.44</v>
       </c>
       <c r="B53" s="126">
         <f ca="1"/>
-        <v>-1.7671476434652766</v>
+        <v>-0.65362851935915767</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.50</v>
+        <v>BucketedDeltaVector.AUD.43</v>
       </c>
       <c r="B54" s="126">
         <f ca="1"/>
-        <v>-1.867418302657921</v>
+        <v>-0.64130949362941492</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.49</v>
+        <v>BucketedDeltaVector.AUD.42</v>
       </c>
       <c r="B55" s="126">
         <f ca="1"/>
-        <v>-1.9467416602569307</v>
+        <v>-0.61172187009097678</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.48</v>
+        <v>BucketedDeltaVector.AUD.41</v>
       </c>
       <c r="B56" s="126">
         <f ca="1"/>
-        <v>-2.0049362252336684</v>
+        <v>-0.56272980701789022</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.47</v>
+        <v>BucketedDeltaVector.AUD.40</v>
       </c>
       <c r="B57" s="126">
         <f ca="1"/>
-        <v>-2.0412941443092101</v>
+        <v>-0.49544801395318383</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.46</v>
+        <v>BucketedDeltaVector.AUD.39</v>
       </c>
       <c r="B58" s="126">
         <f ca="1"/>
-        <v>-2.0586690476874963</v>
+        <v>-0.42339038182685662</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.45</v>
+        <v>BucketedDeltaVector.AUD.38</v>
       </c>
       <c r="B59" s="126">
         <f ca="1"/>
-        <v>-2.0548820732566151</v>
+        <v>-0.37973431012222764</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.44</v>
+        <v>BucketedDeltaVector.AUD.37</v>
       </c>
       <c r="B60" s="126">
         <f ca="1"/>
-        <v>-2.0295199605305987</v>
+        <v>-0.35519079508876233</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.43</v>
+        <v>BucketedDeltaVector.AUD.36</v>
       </c>
       <c r="B61" s="126">
         <f ca="1"/>
-        <v>-1.980007566972751</v>
+        <v>-0.30572040532344835</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.42</v>
+        <v>BucketedDeltaVector.AUD.35</v>
       </c>
       <c r="B62" s="126">
         <f ca="1"/>
-        <v>-1.9111271372612018</v>
+        <v>-0.23663202875287997</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.41</v>
+        <v>BucketedDeltaVector.AUD.34</v>
       </c>
       <c r="B63" s="126">
         <f ca="1"/>
-        <v>-1.8200169304309468</v>
+        <v>-0.15868271373380724</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.40</v>
+        <v>BucketedDeltaVector.AUD.33</v>
       </c>
       <c r="B64" s="126">
         <f ca="1"/>
-        <v>-1.7291365223607789</v>
+        <v>-6.6646003789423147E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.39</v>
+        <v>BucketedDeltaVector.AUD.32</v>
       </c>
       <c r="B65" s="126">
         <f ca="1"/>
-        <v>-1.712389676888721</v>
+        <v>5.4411669596940805E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.38</v>
+        <v>BucketedDeltaVector.AUD.31</v>
       </c>
       <c r="B66" s="126">
         <f ca="1"/>
-        <v>-1.6720477438907422</v>
+        <v>0.17398159075145816</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.37</v>
+        <v>BucketedDeltaVector.AUD.30</v>
       </c>
       <c r="B67" s="126">
         <f ca="1"/>
-        <v>-1.6006280552570205</v>
+        <v>0.22637745213011023</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.36</v>
+        <v>BucketedDeltaVector.AUD.29</v>
       </c>
       <c r="B68" s="126">
         <f ca="1"/>
-        <v>-1.5092949919519609</v>
+        <v>0.24184677618887215</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.35</v>
+        <v>BucketedDeltaVector.AUD.28</v>
       </c>
       <c r="B69" s="126">
         <f ca="1"/>
-        <v>-1.4197059040024591</v>
+        <v>0.30083660007189045</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.34</v>
+        <v>BucketedDeltaVector.AUD.27</v>
       </c>
       <c r="B70" s="126">
         <f ca="1"/>
-        <v>-1.3002476874805087</v>
+        <v>0.35250293210946548</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.33</v>
+        <v>BucketedDeltaVector.AUD.26</v>
       </c>
       <c r="B71" s="126">
         <f ca="1"/>
-        <v>-1.1456937681197124</v>
+        <v>0.29350417405869644</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.32</v>
+        <v>BucketedDeltaVector.AUD.25</v>
       </c>
       <c r="B72" s="126">
         <f ca="1"/>
-        <v>-0.9999060501581386</v>
+        <v>0.18257096955953378</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.31</v>
+        <v>BucketedDeltaVector.AUD.24</v>
       </c>
       <c r="B73" s="126">
         <f ca="1"/>
-        <v>-1.0046752628135898</v>
+        <v>0.14236231991386536</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.30</v>
+        <v>BucketedDeltaVector.AUD.23</v>
       </c>
       <c r="B74" s="126">
         <f ca="1"/>
-        <v>-0.9711833940447141</v>
+        <v>0.1452930501330513</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.29</v>
+        <v>BucketedDeltaVector.AUD.22</v>
       </c>
       <c r="B75" s="126">
         <f ca="1"/>
-        <v>-0.89275461403389422</v>
+        <v>0.14497960198144269</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.28</v>
+        <v>BucketedDeltaVector.AUD.21</v>
       </c>
       <c r="B76" s="126">
         <f ca="1"/>
-        <v>-0.81123689855875258</v>
+        <v>0.17840428921005855</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.27</v>
+        <v>BucketedDeltaVector.AUD.20</v>
       </c>
       <c r="B77" s="126">
         <f ca="1"/>
-        <v>-0.97335111937918628</v>
+        <v>0.29915181437482302</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.26</v>
+        <v>BucketedDeltaVector.AUD.19</v>
       </c>
       <c r="B78" s="126">
         <f ca="1"/>
-        <v>-1.0766526413122173</v>
+        <v>0.47365084288006803</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.25</v>
+        <v>BucketedDeltaVector.AUD.18</v>
       </c>
       <c r="B79" s="126">
         <f ca="1"/>
-        <v>-1.1026358864135948</v>
+        <v>0.64150955261379183</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.24</v>
+        <v>BucketedDeltaVector.AUD.17</v>
       </c>
       <c r="B80" s="126">
         <f ca="1"/>
-        <v>-1.0730362303578869</v>
+        <v>0.85762785968004773</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.23</v>
+        <v>BucketedDeltaVector.AUD.16</v>
       </c>
       <c r="B81" s="126">
         <f ca="1"/>
-        <v>-1.1000810476528455</v>
+        <v>1.1885001974363512</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.22</v>
+        <v>BucketedDeltaVector.AUD.15</v>
       </c>
       <c r="B82" s="126">
         <f ca="1"/>
-        <v>-1.0428349049504952</v>
+        <v>1.5426178001731166</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.21</v>
+        <v>BucketedDeltaVector.AUD.0</v>
       </c>
       <c r="B83" s="126">
         <f ca="1"/>
-        <v>-0.89287886869068822</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.0</v>
+        <v>BucketedDeltaVector.AUD.1</v>
       </c>
       <c r="B84" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.1</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="B85" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="B86" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="B87" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
+        <v>BucketedDeltaVector.AUD.5</v>
       </c>
       <c r="B88" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.5</v>
+        <v>BucketedDeltaVector.AUD.6</v>
       </c>
       <c r="B89" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.6</v>
+        <v>BucketedDeltaVector.AUD.7</v>
       </c>
       <c r="B90" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.7</v>
+        <v>BucketedDeltaVector.AUD.8</v>
       </c>
       <c r="B91" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.8</v>
+        <v>BucketedDeltaVector.AUD.9</v>
       </c>
       <c r="B92" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.9</v>
+        <v>BucketedDeltaVector.AUD.10</v>
       </c>
       <c r="B93" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.10</v>
+        <v>BucketedDeltaVector.AUD.11</v>
       </c>
       <c r="B94" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.11</v>
+        <v>BucketedDeltaVector.AUD.12</v>
       </c>
       <c r="B95" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.12</v>
+        <v>BucketedDeltaVector.AUD.13</v>
       </c>
       <c r="B96" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-80.500925741072237</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.13</v>
+        <v>BucketedDeltaVector.AUD.14</v>
       </c>
       <c r="B97" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-54.839165089746992</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.14</v>
+        <v>BreakEvenRate</v>
       </c>
       <c r="B98" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>5.5655220634982357E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.15</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="B99" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-6808910.1380771603</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.16</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="B100" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-3404455.0690385802</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.17</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
       <c r="B101" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>-4083537.0330383144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.18</v>
+        <v>AccrualFactor</v>
       </c>
       <c r="B102" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="119" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.19</v>
+        <v>FloatingNPV</v>
       </c>
       <c r="B103" s="126">
         <f ca="1"/>
-        <v>-88.411224341802907</v>
+        <v>1650808.1464105204</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="119" t="str">
-        <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.20</v>
-      </c>
-      <c r="B104" s="126">
-        <f ca="1"/>
-        <v>-5.5207881586878438</v>
+      <c r="A104" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B104" s="126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="119" t="str">
-        <f ca="1"/>
-        <v>BreakEvenRate</v>
-      </c>
-      <c r="B105" s="120">
-        <f ca="1"/>
-        <v>5.5982223329145202E-2</v>
+      <c r="A105" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B105" s="120" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="119" t="str">
-        <f ca="1"/>
-        <v>RiskNPV.AUD</v>
-      </c>
-      <c r="B106" s="126">
-        <f ca="1"/>
-        <v>-7006731.5614829306</v>
+      <c r="A106" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B106" s="126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="119" t="str">
-        <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
-      </c>
-      <c r="B107" s="126">
-        <f ca="1"/>
-        <v>-3503365.7807414653</v>
+      <c r="A107" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B107" s="126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="119" t="str">
-        <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
-      </c>
-      <c r="B108" s="126">
-        <f ca="1"/>
-        <v>-3951363.0303441063</v>
+      <c r="A108" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B108" s="126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="119" t="str">
-        <f ca="1"/>
-        <v>AccrualFactor</v>
-      </c>
-      <c r="B109" s="126">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="A109" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B109" s="126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="119" t="str">
-        <f ca="1"/>
-        <v>FloatingNPV</v>
-      </c>
-      <c r="B110" s="126">
-        <f ca="1"/>
-        <v>10387317.056062872</v>
+      <c r="A110" s="119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B110" s="126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4794,7 +4802,7 @@
   </sheetPr>
   <dimension ref="B1:L168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -5579,7 +5587,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f ca="1">TODAY() + 52</f>
-        <v>43269</v>
+        <v>43696</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>112</v>
@@ -5643,7 +5651,7 @@
       </c>
       <c r="L4" s="22">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -5669,7 +5677,7 @@
       </c>
       <c r="L5" s="22">
         <f ca="1">E8</f>
-        <v>46874</v>
+        <v>47301</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5696,7 +5704,7 @@
       </c>
       <c r="L6" s="22">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -5707,7 +5715,7 @@
       </c>
       <c r="E7" s="27">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod($K$27,$F$7,$F$4,"MODFOLLOWING","Calendar")</f>
-        <v>45047</v>
+        <v>45475</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>132</v>
@@ -5717,7 +5725,7 @@
       </c>
       <c r="H7" s="27">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod($K$27,$I$7,$I$4,"MODFOLLOWING","Calendar")</f>
-        <v>45047</v>
+        <v>45475</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>132</v>
@@ -5738,7 +5746,7 @@
       </c>
       <c r="E8" s="27">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(E7,$F$8,$F$4,"NONE","Calendar")</f>
-        <v>46874</v>
+        <v>47301</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>132</v>
@@ -5748,7 +5756,7 @@
       </c>
       <c r="H8" s="27">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(H7,$I$8,$I$4,"NONE","Calendar")</f>
-        <v>46874</v>
+        <v>47301</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>132</v>
@@ -5889,7 +5897,7 @@
       </c>
       <c r="L14" s="22">
         <f ca="1">L6</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="13.5" thickBot="1">
@@ -6175,7 +6183,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="27">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod($L$4,$L$27,$I$4,"FOLLOWING","Business")</f>
-        <v>43221</v>
+        <v>43648</v>
       </c>
       <c r="L27" s="28" t="s">
         <v>141</v>
@@ -6237,7 +6245,7 @@
       </c>
       <c r="E31" s="92">
         <f ca="1">E7-2</f>
-        <v>45045</v>
+        <v>45473</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -6330,7 +6338,7 @@
       </c>
       <c r="E37" s="27">
         <f ca="1">K27</f>
-        <v>43221</v>
+        <v>43648</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -6548,7 +6556,7 @@
       </c>
       <c r="E52" s="45">
         <f ca="1"/>
-        <v>990877.1830784895</v>
+        <v>295796.55536047596</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" t="s">
@@ -6570,7 +6578,7 @@
       </c>
       <c r="E53" s="122">
         <f ca="1"/>
-        <v>-0.517816303678451</v>
+        <v>-0.517766132698391</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53"/>
@@ -6586,7 +6594,7 @@
       </c>
       <c r="E54" s="122">
         <f ca="1"/>
-        <v>0.64487069918246698</v>
+        <v>0.64482382599481003</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="31"/>
@@ -6602,7 +6610,7 @@
       </c>
       <c r="E55" s="45">
         <f ca="1"/>
-        <v>9.6660581681016402E-3</v>
+        <v>9.6648639567673104E-3</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="31"/>
@@ -6618,7 +6626,7 @@
       </c>
       <c r="E56" s="45">
         <f ca="1"/>
-        <v>41278.894041620806</v>
+        <v>34083.805495996472</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" t="str">
@@ -6641,7 +6649,7 @@
       </c>
       <c r="E57" s="123">
         <f ca="1"/>
-        <v>5.6054982387867783E-2</v>
+        <v>5.6057288744740433E-2</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" t="str">
@@ -7090,7 +7098,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7235,11 +7243,11 @@
       </c>
       <c r="F3" s="72">
         <f ca="1"/>
-        <v>5.5632523422525143E-2</v>
+        <v>5.5630549819104015E-2</v>
       </c>
       <c r="G3" s="71">
         <f ca="1"/>
-        <v>1633736.3074224829</v>
+        <v>1625628.6618583212</v>
       </c>
       <c r="H3" s="71" t="str">
         <f ca="1"/>
@@ -7247,27 +7255,27 @@
       </c>
       <c r="I3" s="70">
         <f ca="1"/>
-        <v>45047</v>
+        <v>45475</v>
       </c>
       <c r="J3" s="70">
         <f ca="1"/>
-        <v>45254</v>
+        <v>45681</v>
       </c>
       <c r="K3" s="70">
         <f ca="1"/>
-        <v>45254</v>
+        <v>45681</v>
       </c>
       <c r="L3" s="89">
         <f ca="1"/>
-        <v>0.87036702367779994</v>
+        <v>0.75782186617798197</v>
       </c>
       <c r="M3" s="71">
         <f ca="1"/>
-        <v>1421950.2073656658</v>
+        <v>1231936.9462418887</v>
       </c>
       <c r="N3" s="89">
         <f ca="1"/>
-        <v>0.56712328767123299</v>
+        <v>0.56438356164383596</v>
       </c>
       <c r="O3" s="73" t="b">
         <f ca="1"/>
@@ -7283,19 +7291,19 @@
       </c>
       <c r="R3" s="71">
         <f t="shared" ref="R3:R42" ca="1" si="0">S3/(1+O3*G3)</f>
-        <v>3155049.9584829332</v>
+        <v>3139696.784311078</v>
       </c>
       <c r="S3" s="71">
         <f ca="1">E3*F3*N3</f>
-        <v>3155049.9584829332</v>
+        <v>3139696.784311078</v>
       </c>
       <c r="T3" s="72">
         <f ca="1">G3/N3/(E3-G3)</f>
-        <v>2.9285881725657697E-2</v>
+        <v>2.9279592080661089E-2</v>
       </c>
       <c r="U3" s="72">
         <f ca="1">G3/E3/N3</f>
-        <v>2.8807427642956816E-2</v>
+        <v>2.8803614639722662E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7318,11 +7326,11 @@
       </c>
       <c r="F4" s="72">
         <f ca="1"/>
-        <v>5.6280209026424097E-2</v>
+        <v>5.6277352455805625E-2</v>
       </c>
       <c r="G4" s="71">
         <f ca="1"/>
-        <v>1453148.3246885086</v>
+        <v>1444950.6280158807</v>
       </c>
       <c r="H4" s="71" t="str">
         <f ca="1"/>
@@ -7330,27 +7338,27 @@
       </c>
       <c r="I4" s="70">
         <f ca="1"/>
-        <v>45254</v>
+        <v>45681</v>
       </c>
       <c r="J4" s="70">
         <f ca="1"/>
-        <v>45436</v>
+        <v>45862</v>
       </c>
       <c r="K4" s="70">
         <f ca="1"/>
-        <v>45436</v>
+        <v>45862</v>
       </c>
       <c r="L4" s="89">
         <f ca="1"/>
-        <v>0.85965127438148903</v>
+        <v>0.73937731997768197</v>
       </c>
       <c r="M4" s="71">
         <f ca="1"/>
-        <v>1249200.8091838022</v>
+        <v>1068363.7228424505</v>
       </c>
       <c r="N4" s="89">
         <f ca="1"/>
-        <v>0.49863013698630099</v>
+        <v>0.49589041095890402</v>
       </c>
       <c r="O4" s="74" t="b">
         <f ca="1"/>
@@ -7366,19 +7374,19 @@
       </c>
       <c r="R4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>2806300.8336463501</v>
+        <v>2790739.9436988537</v>
       </c>
       <c r="S4" s="71">
         <f t="shared" ref="S4:S42" ca="1" si="1">E4*F4*N4</f>
-        <v>2806300.8336463501</v>
+        <v>2790739.9436988537</v>
       </c>
       <c r="T4" s="72">
         <f t="shared" ref="T4:T42" ca="1" si="2">G4/N4/(E4-G4)</f>
-        <v>2.9572542717378907E-2</v>
+        <v>2.9565717155259089E-2</v>
       </c>
       <c r="U4" s="72">
         <f t="shared" ref="U4:U42" ca="1" si="3">G4/E4/N4</f>
-        <v>2.9142809808313519E-2</v>
+        <v>2.9138507139546771E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -7401,11 +7409,11 @@
       </c>
       <c r="F5" s="72">
         <f ca="1"/>
-        <v>5.6380093959121934E-2</v>
+        <v>5.638872177665144E-2</v>
       </c>
       <c r="G5" s="71">
         <f ca="1"/>
-        <v>1479722.8474429892</v>
+        <v>1495803.7986830533</v>
       </c>
       <c r="H5" s="71" t="str">
         <f ca="1"/>
@@ -7413,27 +7421,27 @@
       </c>
       <c r="I5" s="70">
         <f ca="1"/>
-        <v>45436</v>
+        <v>45862</v>
       </c>
       <c r="J5" s="70">
         <f ca="1"/>
-        <v>45621</v>
+        <v>46049</v>
       </c>
       <c r="K5" s="70">
         <f ca="1"/>
-        <v>45621</v>
+        <v>46049</v>
       </c>
       <c r="L5" s="89">
         <f ca="1"/>
-        <v>0.84886916465545303</v>
+        <v>0.72079179945190297</v>
       </c>
       <c r="M5" s="71">
         <f ca="1"/>
-        <v>1256091.0974305186</v>
+        <v>1078163.11167975</v>
       </c>
       <c r="N5" s="89">
         <f ca="1"/>
-        <v>0.50684931506849296</v>
+        <v>0.51232876712328801</v>
       </c>
       <c r="O5" s="74" t="b">
         <f ca="1"/>
@@ -7449,19 +7457,19 @@
       </c>
       <c r="R5" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>2857621.2006678232</v>
+        <v>2888956.4307489935</v>
       </c>
       <c r="S5" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>2857621.2006678232</v>
+        <v>2888956.4307489935</v>
       </c>
       <c r="T5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9633018398587164E-2</v>
+        <v>2.9639519460097904E-2</v>
       </c>
       <c r="U5" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9194531854956286E-2</v>
+        <v>2.9196170402102359E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -7484,11 +7492,11 @@
       </c>
       <c r="F6" s="72">
         <f ca="1"/>
-        <v>5.6792169025528645E-2</v>
+        <v>5.6793978286898139E-2</v>
       </c>
       <c r="G6" s="71">
         <f ca="1"/>
-        <v>1466367.0711693009</v>
+        <v>1434045.9541570202</v>
       </c>
       <c r="H6" s="71" t="str">
         <f ca="1"/>
@@ -7496,27 +7504,27 @@
       </c>
       <c r="I6" s="70">
         <f ca="1"/>
-        <v>45621</v>
+        <v>46049</v>
       </c>
       <c r="J6" s="70">
         <f ca="1"/>
-        <v>45803</v>
+        <v>46227</v>
       </c>
       <c r="K6" s="70">
         <f ca="1"/>
-        <v>45803</v>
+        <v>46227</v>
       </c>
       <c r="L6" s="89">
         <f ca="1"/>
-        <v>0.83839214706898801</v>
+        <v>0.70353487408920901</v>
       </c>
       <c r="M6" s="71">
         <f ca="1"/>
-        <v>1229390.6371888937</v>
+        <v>1008901.3397959988</v>
       </c>
       <c r="N6" s="89">
         <f ca="1"/>
-        <v>0.49863013698630099</v>
+        <v>0.48767123287671199</v>
       </c>
       <c r="O6" s="74" t="b">
         <f ca="1"/>
@@ -7532,19 +7540,19 @@
       </c>
       <c r="R6" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>2831828.7020948506</v>
+        <v>2769678.9411144825</v>
       </c>
       <c r="S6" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>2831828.7020948506</v>
+        <v>2769678.9411144825</v>
       </c>
       <c r="T6" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9845556454740619E-2</v>
+        <v>2.9833829320504445E-2</v>
       </c>
       <c r="U6" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9407911042681055E-2</v>
+        <v>2.9405998498163638E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7567,11 +7575,11 @@
       </c>
       <c r="F7" s="72">
         <f ca="1"/>
-        <v>5.589590408586155E-2</v>
+        <v>5.5904986495702622E-2</v>
       </c>
       <c r="G7" s="71">
         <f ca="1"/>
-        <v>1443225.6166849583</v>
+        <v>1467111.2606686591</v>
       </c>
       <c r="H7" s="71" t="str">
         <f ca="1"/>
@@ -7579,27 +7587,27 @@
       </c>
       <c r="I7" s="70">
         <f ca="1"/>
-        <v>45803</v>
+        <v>46227</v>
       </c>
       <c r="J7" s="70">
         <f ca="1"/>
-        <v>45985</v>
+        <v>46412</v>
       </c>
       <c r="K7" s="70">
         <f ca="1"/>
-        <v>45985</v>
+        <v>46412</v>
       </c>
       <c r="L7" s="89">
         <f ca="1"/>
-        <v>0.82804275147277195</v>
+        <v>0.68603708810211494</v>
       </c>
       <c r="M7" s="71">
         <f ca="1"/>
-        <v>1195052.5106358011</v>
+        <v>1006492.7371909501</v>
       </c>
       <c r="N7" s="89">
         <f ca="1"/>
-        <v>0.49863013698630099</v>
+        <v>0.50684931506849296</v>
       </c>
       <c r="O7" s="74" t="b">
         <f ca="1"/>
@@ -7615,19 +7623,19 @@
       </c>
       <c r="R7" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>2787138.2311306284</v>
+        <v>2833540.4114260222</v>
       </c>
       <c r="S7" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>2787138.2311306284</v>
+        <v>2833540.4114260222</v>
       </c>
       <c r="T7" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9367651920034869E-2</v>
+        <v>2.9376697493373568E-2</v>
       </c>
       <c r="U7" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8943810444506054E-2</v>
+        <v>2.8945708656435719E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -7654,7 +7662,7 @@
       </c>
       <c r="G8" s="71">
         <f ca="1"/>
-        <v>1450272.0676631527</v>
+        <v>1450131.5514791866</v>
       </c>
       <c r="H8" s="71" t="str">
         <f ca="1"/>
@@ -7662,23 +7670,23 @@
       </c>
       <c r="I8" s="70">
         <f ca="1"/>
-        <v>45985</v>
+        <v>46412</v>
       </c>
       <c r="J8" s="70">
         <f ca="1"/>
-        <v>46167</v>
+        <v>46594</v>
       </c>
       <c r="K8" s="70">
         <f ca="1"/>
-        <v>46167</v>
+        <v>46594</v>
       </c>
       <c r="L8" s="89">
         <f ca="1"/>
-        <v>0.81781998845273796</v>
+        <v>0.66924779699282599</v>
       </c>
       <c r="M8" s="71">
         <f ca="1"/>
-        <v>1186061.4856296082</v>
+        <v>970497.34617723455</v>
       </c>
       <c r="N8" s="89">
         <f ca="1"/>
@@ -7706,11 +7714,11 @@
       </c>
       <c r="T8" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9513147567160846E-2</v>
+        <v>2.9510245975162282E-2</v>
       </c>
       <c r="U8" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9085126631706107E-2</v>
+        <v>2.9082308587357338E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7733,11 +7741,11 @@
       </c>
       <c r="F9" s="72">
         <f ca="1"/>
-        <v>5.5566209125012977E-2</v>
+        <v>5.5561190758819969E-2</v>
       </c>
       <c r="G9" s="71">
         <f ca="1"/>
-        <v>1442595.969970538</v>
+        <v>1434444.3621508884</v>
       </c>
       <c r="H9" s="71" t="str">
         <f ca="1"/>
@@ -7745,27 +7753,27 @@
       </c>
       <c r="I9" s="70">
         <f ca="1"/>
-        <v>46167</v>
+        <v>46594</v>
       </c>
       <c r="J9" s="70">
         <f ca="1"/>
-        <v>46350</v>
+        <v>46776</v>
       </c>
       <c r="K9" s="70">
         <f ca="1"/>
-        <v>46350</v>
+        <v>46776</v>
       </c>
       <c r="L9" s="89">
         <f ca="1"/>
-        <v>0.80767048596036695</v>
+        <v>0.65286988371079402</v>
       </c>
       <c r="M9" s="71">
         <f ca="1"/>
-        <v>1165142.1881105714</v>
+        <v>936505.52390705456</v>
       </c>
       <c r="N9" s="89">
         <f ca="1"/>
-        <v>0.50136986301369901</v>
+        <v>0.49863013698630099</v>
       </c>
       <c r="O9" s="74" t="b">
         <f ca="1"/>
@@ -7781,19 +7789,19 @@
       </c>
       <c r="R9" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>2785922.265719831</v>
+        <v>2770448.4159192401</v>
       </c>
       <c r="S9" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>2785922.265719831</v>
+        <v>2770448.4159192401</v>
       </c>
       <c r="T9" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9194244006032419E-2</v>
+        <v>2.9186365035074196E-2</v>
       </c>
       <c r="U9" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8773089018538034E-2</v>
+        <v>2.8767702867311794E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7816,11 +7824,11 @@
       </c>
       <c r="F10" s="72">
         <f ca="1"/>
-        <v>5.5827639754486916E-2</v>
+        <v>5.5831215621355727E-2</v>
       </c>
       <c r="G10" s="71">
         <f ca="1"/>
-        <v>1433542.9131500439</v>
+        <v>1441415.6965736211</v>
       </c>
       <c r="H10" s="71" t="str">
         <f ca="1"/>
@@ -7828,27 +7836,27 @@
       </c>
       <c r="I10" s="70">
         <f ca="1"/>
-        <v>46350</v>
+        <v>46776</v>
       </c>
       <c r="J10" s="70">
         <f ca="1"/>
-        <v>46531</v>
+        <v>46958</v>
       </c>
       <c r="K10" s="70">
         <f ca="1"/>
-        <v>46531</v>
+        <v>46958</v>
       </c>
       <c r="L10" s="89">
         <f ca="1"/>
-        <v>0.797757844038402</v>
+        <v>0.63689275124350897</v>
       </c>
       <c r="M10" s="71">
         <f ca="1"/>
-        <v>1143620.1037311093</v>
+        <v>918027.20867635251</v>
       </c>
       <c r="N10" s="89">
         <f ca="1"/>
-        <v>0.49589041095890402</v>
+        <v>0.49863013698630099</v>
       </c>
       <c r="O10" s="74" t="b">
         <f ca="1"/>
@@ -7864,19 +7872,19 @@
       </c>
       <c r="R10" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>2768439.1220718161</v>
+        <v>2783912.6693388312</v>
       </c>
       <c r="S10" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>2768439.1220718161</v>
+        <v>2783912.6693388312</v>
       </c>
       <c r="T10" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9328904492619042E-2</v>
+        <v>2.9330283912280566E-2</v>
       </c>
       <c r="U10" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8908462060760559E-2</v>
+        <v>2.8907512596119345E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -7903,7 +7911,7 @@
       </c>
       <c r="G11" s="71">
         <f ca="1"/>
-        <v>1460488.9500589308</v>
+        <v>1460347.4439659964</v>
       </c>
       <c r="H11" s="71" t="str">
         <f ca="1"/>
@@ -7911,23 +7919,23 @@
       </c>
       <c r="I11" s="70">
         <f ca="1"/>
-        <v>46531</v>
+        <v>46958</v>
       </c>
       <c r="J11" s="70">
         <f ca="1"/>
-        <v>46715</v>
+        <v>47142</v>
       </c>
       <c r="K11" s="70">
         <f ca="1"/>
-        <v>46715</v>
+        <v>47142</v>
       </c>
       <c r="L11" s="89">
         <f ca="1"/>
-        <v>0.78783027107693804</v>
+        <v>0.62113723909787</v>
       </c>
       <c r="M11" s="71">
         <f ca="1"/>
-        <v>1150617.4054298</v>
+        <v>907076.17946867039</v>
       </c>
       <c r="N11" s="89">
         <f ca="1"/>
@@ -7955,11 +7963,11 @@
       </c>
       <c r="T11" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9401054961716053E-2</v>
+        <v>2.9398164090454214E-2</v>
       </c>
       <c r="U11" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8971655802799434E-2</v>
+        <v>2.8968848752586335E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -7986,7 +7994,7 @@
       </c>
       <c r="G12" s="71">
         <f ca="1"/>
-        <v>1265284.9323805638</v>
+        <v>1265162.3395138236</v>
       </c>
       <c r="H12" s="71" t="str">
         <f ca="1"/>
@@ -7994,23 +8002,23 @@
       </c>
       <c r="I12" s="70">
         <f ca="1"/>
-        <v>46715</v>
+        <v>47142</v>
       </c>
       <c r="J12" s="70">
         <f ca="1"/>
-        <v>46874</v>
+        <v>47301</v>
       </c>
       <c r="K12" s="70">
         <f ca="1"/>
-        <v>46897</v>
+        <v>47323</v>
       </c>
       <c r="L12" s="89">
         <f ca="1"/>
-        <v>0.77813398242963605</v>
+        <v>0.60601896391562704</v>
       </c>
       <c r="M12" s="71">
         <f ca="1"/>
-        <v>984561.20334150072</v>
+        <v>766712.37017723825</v>
       </c>
       <c r="N12" s="89">
         <f ca="1"/>
@@ -8038,11 +8046,11 @@
       </c>
       <c r="T12" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9418071502782413E-2</v>
+        <v>2.941518467652177E-2</v>
       </c>
       <c r="U12" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9045849076660767E-2</v>
+        <v>2.9043034837895977E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -8069,7 +8077,7 @@
       </c>
       <c r="G13" s="71">
         <f ca="1"/>
-        <v>-1761994.1073113321</v>
+        <v>-1753312.1644252376</v>
       </c>
       <c r="H13" s="71" t="str">
         <f ca="1"/>
@@ -8077,27 +8085,27 @@
       </c>
       <c r="I13" s="70">
         <f ca="1"/>
-        <v>45047</v>
+        <v>45475</v>
       </c>
       <c r="J13" s="70">
         <f ca="1"/>
-        <v>45254</v>
+        <v>45681</v>
       </c>
       <c r="K13" s="70">
         <f ca="1"/>
-        <v>45254</v>
+        <v>45681</v>
       </c>
       <c r="L13" s="89">
         <f ca="1"/>
-        <v>0.87036702367779994</v>
+        <v>0.75782186617798197</v>
       </c>
       <c r="M13" s="71">
         <f ca="1"/>
-        <v>-1533581.5669183864</v>
+        <v>-1328698.2964372903</v>
       </c>
       <c r="N13" s="89">
         <f ca="1"/>
-        <v>0.56712328767123299</v>
+        <v>0.56438356164383596</v>
       </c>
       <c r="O13" s="74" t="b">
         <f ca="1"/>
@@ -8113,19 +8121,19 @@
       </c>
       <c r="R13" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-3402739.7260273979</v>
+        <v>-3386301.3698630156</v>
       </c>
       <c r="S13" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-3402739.7260273979</v>
+        <v>-3386301.3698630156</v>
       </c>
       <c r="T13" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1626230539171969E-2</v>
+        <v>3.1620371786879299E-2</v>
       </c>
       <c r="U13" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707057E-2</v>
+        <v>3.1065967961903463E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -8152,7 +8160,7 @@
       </c>
       <c r="G14" s="71">
         <f ca="1"/>
-        <v>-1549192.8866215562</v>
+        <v>-1540531.5619464454</v>
       </c>
       <c r="H14" s="71" t="str">
         <f ca="1"/>
@@ -8160,27 +8168,27 @@
       </c>
       <c r="I14" s="70">
         <f ca="1"/>
-        <v>45254</v>
+        <v>45681</v>
       </c>
       <c r="J14" s="70">
         <f ca="1"/>
-        <v>45436</v>
+        <v>45862</v>
       </c>
       <c r="K14" s="70">
         <f ca="1"/>
-        <v>45436</v>
+        <v>45862</v>
       </c>
       <c r="L14" s="89">
         <f ca="1"/>
-        <v>0.85965127438148903</v>
+        <v>0.73937731997768197</v>
       </c>
       <c r="M14" s="71">
         <f ca="1"/>
-        <v>-1331765.6392469585</v>
+        <v>-1139034.0976129952</v>
       </c>
       <c r="N14" s="89">
         <f ca="1"/>
-        <v>0.49863013698630099</v>
+        <v>0.49589041095890402</v>
       </c>
       <c r="O14" s="74" t="b">
         <f ca="1"/>
@@ -8196,19 +8204,19 @@
       </c>
       <c r="R14" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-2991780.8219178058</v>
+        <v>-2975342.465753424</v>
       </c>
       <c r="S14" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-2991780.8219178058</v>
+        <v>-2975342.465753424</v>
       </c>
       <c r="T14" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1557870505751401E-2</v>
+        <v>3.1552037051112897E-2</v>
       </c>
       <c r="U14" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -8235,7 +8243,7 @@
       </c>
       <c r="G15" s="71">
         <f ca="1"/>
-        <v>-1574729.0331043298</v>
+        <v>-1591598.9065413564</v>
       </c>
       <c r="H15" s="71" t="str">
         <f ca="1"/>
@@ -8243,27 +8251,27 @@
       </c>
       <c r="I15" s="70">
         <f ca="1"/>
-        <v>45436</v>
+        <v>45862</v>
       </c>
       <c r="J15" s="70">
         <f ca="1"/>
-        <v>45621</v>
+        <v>46049</v>
       </c>
       <c r="K15" s="70">
         <f ca="1"/>
-        <v>45621</v>
+        <v>46049</v>
       </c>
       <c r="L15" s="89">
         <f ca="1"/>
-        <v>0.84886916465545303</v>
+        <v>0.72079179945190297</v>
       </c>
       <c r="M15" s="71">
         <f ca="1"/>
-        <v>-1336738.9188899617</v>
+        <v>-1147211.4398516254</v>
       </c>
       <c r="N15" s="89">
         <f ca="1"/>
-        <v>0.50684931506849296</v>
+        <v>0.51232876712328801</v>
       </c>
       <c r="O15" s="74" t="b">
         <f ca="1"/>
@@ -8279,19 +8287,19 @@
       </c>
       <c r="R15" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-3041095.8904109579</v>
+        <v>-3073972.6027397281</v>
       </c>
       <c r="S15" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-3041095.8904109579</v>
+        <v>-3073972.6027397281</v>
       </c>
       <c r="T15" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1566058102249772E-2</v>
+        <v>3.1568410437234982E-2</v>
       </c>
       <c r="U15" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707057E-2</v>
+        <v>3.1065967961903456E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -8318,7 +8326,7 @@
       </c>
       <c r="G16" s="71">
         <f ca="1"/>
-        <v>-1549192.8866215562</v>
+        <v>-1514997.8896489895</v>
       </c>
       <c r="H16" s="71" t="str">
         <f ca="1"/>
@@ -8326,27 +8334,27 @@
       </c>
       <c r="I16" s="70">
         <f ca="1"/>
-        <v>45621</v>
+        <v>46049</v>
       </c>
       <c r="J16" s="70">
         <f ca="1"/>
-        <v>45803</v>
+        <v>46227</v>
       </c>
       <c r="K16" s="70">
         <f ca="1"/>
-        <v>45803</v>
+        <v>46227</v>
       </c>
       <c r="L16" s="89">
         <f ca="1"/>
-        <v>0.83839214706898801</v>
+        <v>0.70353487408920901</v>
       </c>
       <c r="M16" s="71">
         <f ca="1"/>
-        <v>-1298831.1504386498</v>
+        <v>-1065853.8495396194</v>
       </c>
       <c r="N16" s="89">
         <f ca="1"/>
-        <v>0.49863013698630099</v>
+        <v>0.48767123287671199</v>
       </c>
       <c r="O16" s="74" t="b">
         <f ca="1"/>
@@ -8362,19 +8370,19 @@
       </c>
       <c r="R16" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-2991780.8219178058</v>
+        <v>-2926027.3972602719</v>
       </c>
       <c r="S16" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-2991780.8219178058</v>
+        <v>-2926027.3972602719</v>
       </c>
       <c r="T16" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1557870505751401E-2</v>
+        <v>3.1543856725610352E-2</v>
       </c>
       <c r="U16" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -8401,7 +8409,7 @@
       </c>
       <c r="G17" s="71">
         <f ca="1"/>
-        <v>-1549192.8866215562</v>
+        <v>-1574576.4583430516</v>
       </c>
       <c r="H17" s="71" t="str">
         <f ca="1"/>
@@ -8409,27 +8417,27 @@
       </c>
       <c r="I17" s="70">
         <f ca="1"/>
-        <v>45803</v>
+        <v>46227</v>
       </c>
       <c r="J17" s="70">
         <f ca="1"/>
-        <v>45985</v>
+        <v>46412</v>
       </c>
       <c r="K17" s="70">
         <f ca="1"/>
-        <v>45985</v>
+        <v>46412</v>
       </c>
       <c r="L17" s="89">
         <f ca="1"/>
-        <v>0.82804275147277195</v>
+        <v>0.68603708810211494</v>
       </c>
       <c r="M17" s="71">
         <f ca="1"/>
-        <v>-1282797.9404001597</v>
+        <v>-1080217.8484758083</v>
       </c>
       <c r="N17" s="89">
         <f ca="1"/>
-        <v>0.49863013698630099</v>
+        <v>0.50684931506849296</v>
       </c>
       <c r="O17" s="74" t="b">
         <f ca="1"/>
@@ -8445,19 +8453,19 @@
       </c>
       <c r="R17" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-2991780.8219178058</v>
+        <v>-3041095.8904109579</v>
       </c>
       <c r="S17" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-2991780.8219178058</v>
+        <v>-3041095.8904109579</v>
       </c>
       <c r="T17" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1557870505751401E-2</v>
+        <v>3.156295075403491E-2</v>
       </c>
       <c r="U17" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -8484,7 +8492,7 @@
       </c>
       <c r="G18" s="71">
         <f ca="1"/>
-        <v>-1549192.8866215562</v>
+        <v>-1549042.786045596</v>
       </c>
       <c r="H18" s="71" t="str">
         <f ca="1"/>
@@ -8492,23 +8500,23 @@
       </c>
       <c r="I18" s="70">
         <f ca="1"/>
-        <v>45985</v>
+        <v>46412</v>
       </c>
       <c r="J18" s="70">
         <f ca="1"/>
-        <v>46167</v>
+        <v>46594</v>
       </c>
       <c r="K18" s="70">
         <f ca="1"/>
-        <v>46167</v>
+        <v>46594</v>
       </c>
       <c r="L18" s="89">
         <f ca="1"/>
-        <v>0.81781998845273796</v>
+        <v>0.66924779699282599</v>
       </c>
       <c r="M18" s="71">
         <f ca="1"/>
-        <v>-1266960.9086479051</v>
+        <v>-1036693.4720086446</v>
       </c>
       <c r="N18" s="89">
         <f ca="1"/>
@@ -8536,11 +8544,11 @@
       </c>
       <c r="T18" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1557870505751401E-2</v>
+        <v>3.1554764769214635E-2</v>
       </c>
       <c r="U18" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -8567,7 +8575,7 @@
       </c>
       <c r="G19" s="71">
         <f ca="1"/>
-        <v>-1557704.9354491497</v>
+        <v>-1549042.786045596</v>
       </c>
       <c r="H19" s="71" t="str">
         <f ca="1"/>
@@ -8575,27 +8583,27 @@
       </c>
       <c r="I19" s="70">
         <f ca="1"/>
-        <v>46167</v>
+        <v>46594</v>
       </c>
       <c r="J19" s="70">
         <f ca="1"/>
-        <v>46350</v>
+        <v>46776</v>
       </c>
       <c r="K19" s="70">
         <f ca="1"/>
-        <v>46350</v>
+        <v>46776</v>
       </c>
       <c r="L19" s="89">
         <f ca="1"/>
-        <v>0.80767048596036695</v>
+        <v>0.65286988371079402</v>
       </c>
       <c r="M19" s="71">
         <f ca="1"/>
-        <v>-1258112.3021970768</v>
+        <v>-1011323.3835886327</v>
       </c>
       <c r="N19" s="89">
         <f ca="1"/>
-        <v>0.50136986301369901</v>
+        <v>0.49863013698630099</v>
       </c>
       <c r="O19" s="74" t="b">
         <f ca="1"/>
@@ -8611,19 +8619,19 @@
       </c>
       <c r="R19" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-3008219.1780821942</v>
+        <v>-2991780.8219178058</v>
       </c>
       <c r="S19" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-3008219.1780821942</v>
+        <v>-2991780.8219178058</v>
       </c>
       <c r="T19" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1560599232610766E-2</v>
+        <v>3.1554764769214635E-2</v>
       </c>
       <c r="U19" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -8650,7 +8658,7 @@
       </c>
       <c r="G20" s="71">
         <f ca="1"/>
-        <v>-1540680.8377939663</v>
+        <v>-1549042.786045596</v>
       </c>
       <c r="H20" s="71" t="str">
         <f ca="1"/>
@@ -8658,27 +8666,27 @@
       </c>
       <c r="I20" s="70">
         <f ca="1"/>
-        <v>46350</v>
+        <v>46776</v>
       </c>
       <c r="J20" s="70">
         <f ca="1"/>
-        <v>46531</v>
+        <v>46958</v>
       </c>
       <c r="K20" s="70">
         <f ca="1"/>
-        <v>46531</v>
+        <v>46958</v>
       </c>
       <c r="L20" s="89">
         <f ca="1"/>
-        <v>0.797757844038402</v>
+        <v>0.63689275124350897</v>
       </c>
       <c r="M20" s="71">
         <f ca="1"/>
-        <v>-1229090.2235097934</v>
+        <v>-986574.12179848994</v>
       </c>
       <c r="N20" s="89">
         <f ca="1"/>
-        <v>0.49589041095890402</v>
+        <v>0.49863013698630099</v>
       </c>
       <c r="O20" s="74" t="b">
         <f ca="1"/>
@@ -8694,19 +8702,19 @@
       </c>
       <c r="R20" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>-2975342.465753424</v>
+        <v>-2991780.8219178058</v>
       </c>
       <c r="S20" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>-2975342.465753424</v>
+        <v>-2991780.8219178058</v>
       </c>
       <c r="T20" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1555142250702259E-2</v>
+        <v>3.1554764769214635E-2</v>
       </c>
       <c r="U20" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -8733,7 +8741,7 @@
       </c>
       <c r="G21" s="71">
         <f ca="1"/>
-        <v>-1566216.9842767399</v>
+        <v>-1566065.2342439007</v>
       </c>
       <c r="H21" s="71" t="str">
         <f ca="1"/>
@@ -8741,23 +8749,23 @@
       </c>
       <c r="I21" s="70">
         <f ca="1"/>
-        <v>46531</v>
+        <v>46958</v>
       </c>
       <c r="J21" s="70">
         <f ca="1"/>
-        <v>46715</v>
+        <v>47142</v>
       </c>
       <c r="K21" s="70">
         <f ca="1"/>
-        <v>46715</v>
+        <v>47142</v>
       </c>
       <c r="L21" s="89">
         <f ca="1"/>
-        <v>0.78783027107693804</v>
+        <v>0.62113723909787</v>
       </c>
       <c r="M21" s="71">
         <f ca="1"/>
-        <v>-1233913.1512880484</v>
+        <v>-972741.43584541569</v>
       </c>
       <c r="N21" s="89">
         <f ca="1"/>
@@ -8785,11 +8793,11 @@
       </c>
       <c r="T21" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1563328431402735E-2</v>
+        <v>3.1560221620553268E-2</v>
       </c>
       <c r="U21" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707057E-2</v>
+        <v>3.106596796190346E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -8816,7 +8824,7 @@
       </c>
       <c r="G22" s="71">
         <f ca="1"/>
-        <v>-1353415.7635869638</v>
+        <v>-1353284.6317651086</v>
       </c>
       <c r="H22" s="71" t="str">
         <f ca="1"/>
@@ -8824,23 +8832,23 @@
       </c>
       <c r="I22" s="70">
         <f ca="1"/>
-        <v>46715</v>
+        <v>47142</v>
       </c>
       <c r="J22" s="70">
         <f ca="1"/>
-        <v>46874</v>
+        <v>47301</v>
       </c>
       <c r="K22" s="70">
         <f ca="1"/>
-        <v>46897</v>
+        <v>47323</v>
       </c>
       <c r="L22" s="89">
         <f ca="1"/>
-        <v>0.77813398242963605</v>
+        <v>0.60601896391562704</v>
       </c>
       <c r="M22" s="71">
         <f ca="1"/>
-        <v>-1053138.7980029709</v>
+        <v>-820116.1504252319</v>
       </c>
       <c r="N22" s="89">
         <f ca="1"/>
@@ -8868,11 +8876,11 @@
       </c>
       <c r="T22" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1495239760403873E-2</v>
+        <v>3.1492146338515575E-2</v>
       </c>
       <c r="U22" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1068978220707061E-2</v>
+        <v>3.1065967961903463E-2</v>
       </c>
     </row>
     <row r="23" spans="1:21">
